--- a/biology/Zoologie/Andromma_anochetorum/Andromma_anochetorum.xlsx
+++ b/biology/Zoologie/Andromma_anochetorum/Andromma_anochetorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andromma anochetorum est une espèce d'araignées aranéomorphes de la famille des Liocranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andromma anochetorum est une espèce d'araignées aranéomorphes de la famille des Liocranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Gabon[1]. Elle se rencontre vers la lagune Fernan Vaz.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Gabon. Elle se rencontre vers la lagune Fernan Vaz.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,7 mm[2].
-Le mâle décrit par Bosselaers et Jocqué en 2022 mesure 3,20 mm[3].
-Cette araignée est myrmécophile[3]. Elle se rencontre dans des fourmilières d'Anochetus sp..
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,7 mm.
+Le mâle décrit par Bosselaers et Jocqué en 2022 mesure 3,20 mm.
+Cette araignée est myrmécophile. Elle se rencontre dans des fourmilières d'Anochetus sp..
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1910.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1910 : Arachnides recueillis par L. Fea sur la côte occidentale d'Afrique. 2e partie. Annali del Museo Civico di Storia Naturale di Genova, vol. 44, p. 335-449 (texte intégral).</t>
         </is>
